--- a/data_binding.xlsx
+++ b/data_binding.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\git\update27maret\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\git\update4mei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EC42E3-B580-427F-95B3-2FC7B8DDDFA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE570AA-F0FD-461C-8975-9A78FA8DB743}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="450" windowWidth="19350" windowHeight="11070" activeTab="1" xr2:uid="{18E93BCB-30B1-4790-AC5F-91CCC3013EBE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="612" firstSheet="4" activeTab="7" xr2:uid="{18E93BCB-30B1-4790-AC5F-91CCC3013EBE}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="logout" sheetId="2" r:id="rId2"/>
+    <sheet name="forgot password or username" sheetId="3" r:id="rId3"/>
+    <sheet name="change password" sheetId="4" r:id="rId4"/>
+    <sheet name="notifikasi" sheetId="5" r:id="rId5"/>
+    <sheet name="performance" sheetId="6" r:id="rId6"/>
+    <sheet name="daftar supervisor atau sales" sheetId="7" r:id="rId7"/>
+    <sheet name="daftar kacab or admin head" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="199">
   <si>
     <t>var_username</t>
   </si>
@@ -115,16 +121,540 @@
   </si>
   <si>
     <t>status_logout</t>
+  </si>
+  <si>
+    <t>var_email_lupa</t>
+  </si>
+  <si>
+    <t>var_username_lupa</t>
+  </si>
+  <si>
+    <t>expected_output_email</t>
+  </si>
+  <si>
+    <t>expected_output_username</t>
+  </si>
+  <si>
+    <t>var_opsi_otp</t>
+  </si>
+  <si>
+    <t>var_otp1</t>
+  </si>
+  <si>
+    <t>var_otp2</t>
+  </si>
+  <si>
+    <t>var_otp3</t>
+  </si>
+  <si>
+    <t>var_otp4</t>
+  </si>
+  <si>
+    <t>var_otp5</t>
+  </si>
+  <si>
+    <t>var_otp6</t>
+  </si>
+  <si>
+    <t>expected_output_otp</t>
+  </si>
+  <si>
+    <t>var_new_password</t>
+  </si>
+  <si>
+    <t>var_confirm_new_password</t>
+  </si>
+  <si>
+    <t>expected_output</t>
+  </si>
+  <si>
+    <t>amourotezone@gmail.com</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Admin123</t>
+  </si>
+  <si>
+    <t>admin99</t>
+  </si>
+  <si>
+    <t>failedEmptyField</t>
+  </si>
+  <si>
+    <t>adm</t>
+  </si>
+  <si>
+    <t>failedErrorLength</t>
+  </si>
+  <si>
+    <t>adminnnnn</t>
+  </si>
+  <si>
+    <t>failedErrorFormat</t>
+  </si>
+  <si>
+    <t>admin_99</t>
+  </si>
+  <si>
+    <t>admin@99</t>
+  </si>
+  <si>
+    <t>admin992</t>
+  </si>
+  <si>
+    <t>failedNotMatch</t>
+  </si>
+  <si>
+    <t>failedWrongVerificationCode</t>
+  </si>
+  <si>
+    <t>amouro</t>
+  </si>
+  <si>
+    <t>failedWrongFormat</t>
+  </si>
+  <si>
+    <t>amourote@gmail.com</t>
+  </si>
+  <si>
+    <t>failedNotExist</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Admin990</t>
+  </si>
+  <si>
+    <t>var_old_password</t>
+  </si>
+  <si>
+    <t>expected_change_password</t>
+  </si>
+  <si>
+    <t>status_failed</t>
+  </si>
+  <si>
+    <t>OldPasswordIsNotMatch</t>
+  </si>
+  <si>
+    <t>qwerty123</t>
+  </si>
+  <si>
+    <t>ConfirmNewPasswordIsNotMatch</t>
+  </si>
+  <si>
+    <t>qwerty</t>
+  </si>
+  <si>
+    <t>EmptyField</t>
+  </si>
+  <si>
+    <t>InvalidNewPassword</t>
+  </si>
+  <si>
+    <t>admin1</t>
+  </si>
+  <si>
+    <t>var_apa_aja</t>
+  </si>
+  <si>
+    <t>var_pstmn</t>
+  </si>
+  <si>
+    <t>var_verifikasi_akun</t>
+  </si>
+  <si>
+    <t>var_perubahan_data</t>
+  </si>
+  <si>
+    <t>var_lebay</t>
+  </si>
+  <si>
+    <t>var_update</t>
+  </si>
+  <si>
+    <t>enable</t>
+  </si>
+  <si>
+    <t>disable</t>
+  </si>
+  <si>
+    <t>var_bulan</t>
+  </si>
+  <si>
+    <t>Jan 2020</t>
+  </si>
+  <si>
+    <t>Feb 2020</t>
+  </si>
+  <si>
+    <t>Mar 2020</t>
+  </si>
+  <si>
+    <t>Apr 2020</t>
+  </si>
+  <si>
+    <t>Mei 2020</t>
+  </si>
+  <si>
+    <t>Jun 2020</t>
+  </si>
+  <si>
+    <t>Jul 2020</t>
+  </si>
+  <si>
+    <t>Ags 2020</t>
+  </si>
+  <si>
+    <t>Sep 2020</t>
+  </si>
+  <si>
+    <t>Okt 2020</t>
+  </si>
+  <si>
+    <t>Nov 2020</t>
+  </si>
+  <si>
+    <t>Des 2020</t>
+  </si>
+  <si>
+    <t>var_referral</t>
+  </si>
+  <si>
+    <t>dealer_info</t>
+  </si>
+  <si>
+    <t>expected_referral</t>
+  </si>
+  <si>
+    <t>register_status</t>
+  </si>
+  <si>
+    <t>var_full_name</t>
+  </si>
+  <si>
+    <t>var_email</t>
+  </si>
+  <si>
+    <t>var_phone_number</t>
+  </si>
+  <si>
+    <t>var_jabatan</t>
+  </si>
+  <si>
+    <t>var_confirm_password</t>
+  </si>
+  <si>
+    <t>expected_register_status</t>
+  </si>
+  <si>
+    <t>keterangan</t>
+  </si>
+  <si>
+    <t>var_otp_1</t>
+  </si>
+  <si>
+    <t>var_otp_2</t>
+  </si>
+  <si>
+    <t>var_otp_3</t>
+  </si>
+  <si>
+    <t>var_otp_4</t>
+  </si>
+  <si>
+    <t>var_otp_5</t>
+  </si>
+  <si>
+    <t>var_otp_6</t>
+  </si>
+  <si>
+    <t>status_verifikasi</t>
+  </si>
+  <si>
+    <t>expected_verifikasi</t>
+  </si>
+  <si>
+    <t>DSO Ciputat</t>
+  </si>
+  <si>
+    <t>confirm</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>TSO Kelapa Gading</t>
+  </si>
+  <si>
+    <t>geraldakensadhani@gmail.com</t>
+  </si>
+  <si>
+    <t>kirim_ulang</t>
+  </si>
+  <si>
+    <t>3_kali_kirim_ulang</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>empty_field</t>
+  </si>
+  <si>
+    <t>Coba coba</t>
+  </si>
+  <si>
+    <t>Co</t>
+  </si>
+  <si>
+    <t>error_length</t>
+  </si>
+  <si>
+    <t>amo</t>
+  </si>
+  <si>
+    <t>iniadalaemailsayaseorangkepalacabangdarisini1002901@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>adk</t>
+  </si>
+  <si>
+    <t>adminnnn</t>
+  </si>
+  <si>
+    <t>invalid_format</t>
+  </si>
+  <si>
+    <t>amourotezone12345</t>
+  </si>
+  <si>
+    <t>adminn_12</t>
+  </si>
+  <si>
+    <t>password_is_not_match</t>
+  </si>
+  <si>
+    <t>var_status_lupa</t>
+  </si>
+  <si>
+    <t>lupa_username</t>
+  </si>
+  <si>
+    <t>lupa_password</t>
+  </si>
+  <si>
+    <t>SUPERVISOR</t>
+  </si>
+  <si>
+    <t>SALESMAN</t>
+  </si>
+  <si>
+    <t>cobasupervisor3@gmail.com</t>
+  </si>
+  <si>
+    <t>supervisor1234567</t>
+  </si>
+  <si>
+    <t>sup</t>
+  </si>
+  <si>
+    <t>superrrrrrr</t>
+  </si>
+  <si>
+    <t>Supervisor4Mei</t>
+  </si>
+  <si>
+    <t>var_jalan</t>
+  </si>
+  <si>
+    <t>var_kode_pos</t>
+  </si>
+  <si>
+    <t>var_input_kode_pos</t>
+  </si>
+  <si>
+    <t>var_kelurahan</t>
+  </si>
+  <si>
+    <t>var_kecamatan</t>
+  </si>
+  <si>
+    <t>var_kota</t>
+  </si>
+  <si>
+    <t>var_provinsi</t>
+  </si>
+  <si>
+    <t>expected_dealer_page</t>
+  </si>
+  <si>
+    <t>KACAB</t>
+  </si>
+  <si>
+    <t>Jalan Kebangsaan 1</t>
+  </si>
+  <si>
+    <t>30163 - SAKO</t>
+  </si>
+  <si>
+    <t>SAKO BARU</t>
+  </si>
+  <si>
+    <t>SAKO</t>
+  </si>
+  <si>
+    <t>PALEMBANG</t>
+  </si>
+  <si>
+    <t>SUMATRA SELATAN</t>
+  </si>
+  <si>
+    <t>ADMIN HEAD</t>
+  </si>
+  <si>
+    <t>Jalan Nusantara 12</t>
+  </si>
+  <si>
+    <t>10110 - GAMBIR</t>
+  </si>
+  <si>
+    <t>GAMBIR</t>
+  </si>
+  <si>
+    <t>JAKARTA PUSAT</t>
+  </si>
+  <si>
+    <t>JAKARTA</t>
+  </si>
+  <si>
+    <t>10150 - CIDENG</t>
+  </si>
+  <si>
+    <t>CIDENG</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>cobasupervisor12345@gmail.com</t>
+  </si>
+  <si>
+    <t>kepala cabang z</t>
+  </si>
+  <si>
+    <t>kepala cabang a</t>
+  </si>
+  <si>
+    <t>CobaKacab13</t>
+  </si>
+  <si>
+    <t>CobaKacab0</t>
+  </si>
+  <si>
+    <t>cobakacab0@gmail.com</t>
+  </si>
+  <si>
+    <t>kepala cabang xyz</t>
+  </si>
+  <si>
+    <t>admin xyz</t>
+  </si>
+  <si>
+    <t>KacabXYZ11</t>
+  </si>
+  <si>
+    <t>AdminXYZ11</t>
+  </si>
+  <si>
+    <t>kacabxyz11@gmail.com</t>
+  </si>
+  <si>
+    <t>adminxyz11@gmail.com</t>
+  </si>
+  <si>
+    <t>kepala cabang zy</t>
+  </si>
+  <si>
+    <t>CobaKacabZY11</t>
+  </si>
+  <si>
+    <t>kacabzy11@gmail.com</t>
+  </si>
+  <si>
+    <t>kacabz@gmail.com</t>
+  </si>
+  <si>
+    <t>supervisor x</t>
+  </si>
+  <si>
+    <t>sales x</t>
+  </si>
+  <si>
+    <t>supervisor xy</t>
+  </si>
+  <si>
+    <t>sales xy</t>
+  </si>
+  <si>
+    <t>supervisor xyz</t>
+  </si>
+  <si>
+    <t>supervisorx@gmail.com</t>
+  </si>
+  <si>
+    <t>salesy@gmail.com</t>
+  </si>
+  <si>
+    <t>SuperX11</t>
+  </si>
+  <si>
+    <t>SalesX11</t>
+  </si>
+  <si>
+    <t>SuperXY11</t>
+  </si>
+  <si>
+    <t>SalesXY11</t>
+  </si>
+  <si>
+    <t>SuperXYZ11</t>
+  </si>
+  <si>
+    <t>superxy11@gmail.com</t>
+  </si>
+  <si>
+    <t>salesxy@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -168,15 +698,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -492,7 +1049,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,28 +1057,28 @@
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -710,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28D94D1-5B15-4A96-9E2C-C7A35BC7249C}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,10 +1278,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -747,4 +1304,4482 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7672409-C398-46C6-B22B-9228971A0D74}">
+  <dimension ref="A1:P22"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="29.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2">
+        <v>5</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>6</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>9</v>
+      </c>
+      <c r="L4" s="2">
+        <v>5</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>6</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>9</v>
+      </c>
+      <c r="L6" s="2">
+        <v>5</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>6</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>9</v>
+      </c>
+      <c r="L7" s="2">
+        <v>5</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>6</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>9</v>
+      </c>
+      <c r="L8" s="2">
+        <v>5</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>6</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>9</v>
+      </c>
+      <c r="L9" s="2">
+        <v>5</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>6</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>9</v>
+      </c>
+      <c r="L10" s="2">
+        <v>5</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>6</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>9</v>
+      </c>
+      <c r="L11" s="2">
+        <v>5</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2">
+        <v>6</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>9</v>
+      </c>
+      <c r="L12" s="2">
+        <v>5</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2">
+        <v>9</v>
+      </c>
+      <c r="L13" s="2">
+        <v>5</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2</v>
+      </c>
+      <c r="L14" s="2">
+        <v>2</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2">
+        <v>6</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>9</v>
+      </c>
+      <c r="L15" s="2">
+        <v>5</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="2">
+        <v>9</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5</v>
+      </c>
+      <c r="I16" s="2">
+        <v>6</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>9</v>
+      </c>
+      <c r="L16" s="2">
+        <v>5</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{17893B76-D95B-4DC4-B0EB-6C813C97D009}"/>
+    <hyperlink ref="B13" r:id="rId2" xr:uid="{AAC73C6E-5C5E-44DD-AB26-8B8470E87FC3}"/>
+    <hyperlink ref="B14" r:id="rId3" xr:uid="{66B872A6-569B-427F-B305-78AEE9452580}"/>
+    <hyperlink ref="B15" r:id="rId4" xr:uid="{65E87F33-0C01-4F84-9E17-8F7580FC1990}"/>
+    <hyperlink ref="B16" r:id="rId5" xr:uid="{D200088A-8A06-41A1-9990-F14FFCB8CECA}"/>
+    <hyperlink ref="B19" r:id="rId6" xr:uid="{80BF8629-42B9-4332-A456-A647FB5E0AA5}"/>
+    <hyperlink ref="O11" r:id="rId7" xr:uid="{744FB2AC-BD39-4683-BDA1-F23C44048C60}"/>
+    <hyperlink ref="B3" r:id="rId8" xr:uid="{9DC83672-E195-4024-A496-DC7C2DCF5EC1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A1E721-CF1B-4CC3-84A9-437E072962E5}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="33.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5028F749-CFEC-4B53-9CE8-C7FCFED7BA5E}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E0E5E0-288B-4A10-8EC1-952AC22EDA26}">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928F48CD-D86B-4825-9C7D-71EACF536476}">
+  <dimension ref="A1:U30"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" customWidth="1"/>
+    <col min="13" max="19" width="12.42578125" customWidth="1"/>
+    <col min="20" max="20" width="26.140625" customWidth="1"/>
+    <col min="21" max="21" width="25.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" s="10">
+        <v>85700001111</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6">
+        <v>3</v>
+      </c>
+      <c r="O2" s="6">
+        <v>5</v>
+      </c>
+      <c r="P2" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>1</v>
+      </c>
+      <c r="R2" s="6">
+        <v>9</v>
+      </c>
+      <c r="S2" s="6">
+        <v>5</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H3" s="10">
+        <v>85700001112</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6">
+        <v>3</v>
+      </c>
+      <c r="O3" s="6">
+        <v>5</v>
+      </c>
+      <c r="P3" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>1</v>
+      </c>
+      <c r="R3" s="6">
+        <v>9</v>
+      </c>
+      <c r="S3" s="6">
+        <v>5</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H4" s="10">
+        <v>85700112213</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H5" s="10">
+        <v>85700112214</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6">
+        <v>1</v>
+      </c>
+      <c r="O5" s="6">
+        <v>2</v>
+      </c>
+      <c r="P5" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>2</v>
+      </c>
+      <c r="R5" s="6">
+        <v>1</v>
+      </c>
+      <c r="S5" s="6">
+        <v>2</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" s="10">
+        <v>85700001114</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6">
+        <v>3</v>
+      </c>
+      <c r="O6" s="6">
+        <v>5</v>
+      </c>
+      <c r="P6" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>1</v>
+      </c>
+      <c r="R6" s="6">
+        <v>9</v>
+      </c>
+      <c r="S6" s="6">
+        <v>5</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="10">
+        <v>85700001113</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6">
+        <v>3</v>
+      </c>
+      <c r="O7" s="6">
+        <v>5</v>
+      </c>
+      <c r="P7" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>1</v>
+      </c>
+      <c r="R7" s="6">
+        <v>9</v>
+      </c>
+      <c r="S7" s="6">
+        <v>5</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>87282</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="10">
+        <v>85700112219</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="10">
+        <v>85700112219</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="10">
+        <v>85700112219</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="10">
+        <v>85700112219</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="10">
+        <v>85700112219</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="10">
+        <v>85700112219</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="10">
+        <v>85700112219</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="10">
+        <v>85700112219</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H21" s="10">
+        <v>85700112219</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="6">
+        <v>812481</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="10">
+        <v>85700112219</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="10">
+        <v>85700112219</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="10">
+        <v>85700112219</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H26" s="10">
+        <v>85700112219</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="10">
+        <v>85700112219</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="10">
+        <v>85700112219</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="10">
+        <v>85700112219</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" s="10">
+        <v>85700112219</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{966A73BF-8136-4453-B2EC-E8EF0CA307E6}"/>
+    <hyperlink ref="G12" r:id="rId2" xr:uid="{AA170D12-1BAE-42CE-9E4D-241C12455382}"/>
+    <hyperlink ref="G13" r:id="rId3" xr:uid="{8FB357D0-1E79-443F-B4B6-0DE5749460A2}"/>
+    <hyperlink ref="G15" r:id="rId4" xr:uid="{645406AA-474E-4138-BD17-3C0B7C8A0C2B}"/>
+    <hyperlink ref="G16" r:id="rId5" xr:uid="{58EFE8A7-C14E-42E3-B6F1-209D6AF0E033}"/>
+    <hyperlink ref="G18" r:id="rId6" xr:uid="{E4D671F2-BB43-4B4D-BECE-E750D9315CB1}"/>
+    <hyperlink ref="G19" r:id="rId7" xr:uid="{ED5DAC01-2F70-4BFA-8C35-68401EBD291F}"/>
+    <hyperlink ref="G21" r:id="rId8" xr:uid="{2239A6D3-6C10-490A-B7C4-307EA14985A5}"/>
+    <hyperlink ref="G17" r:id="rId9" xr:uid="{E7FF87FB-66E9-4B17-934E-C3B07CE394AE}"/>
+    <hyperlink ref="G24" r:id="rId10" xr:uid="{93B2EEF9-352E-4F1D-A757-34C94766AC38}"/>
+    <hyperlink ref="G23" r:id="rId11" xr:uid="{B9D959E9-EF3E-4DD1-818E-577AAAE1BE32}"/>
+    <hyperlink ref="G25" r:id="rId12" xr:uid="{384CCF4E-88E2-46D9-BA5F-3E5D0F5BF6EE}"/>
+    <hyperlink ref="G27" r:id="rId13" xr:uid="{446DA7CA-1BB0-4487-AA2D-D8AD6A465493}"/>
+    <hyperlink ref="G28" r:id="rId14" xr:uid="{7E5B59B8-0BCC-42E1-8911-EBA88C33A010}"/>
+    <hyperlink ref="G22" r:id="rId15" xr:uid="{CDAB619F-4387-4145-98D2-2416724B29C3}"/>
+    <hyperlink ref="G29" r:id="rId16" xr:uid="{D4DAFE07-3222-4268-8898-9D6928524BB0}"/>
+    <hyperlink ref="G30" r:id="rId17" xr:uid="{1569F8A3-0AD4-44D8-9CE2-23A4C3E82A3F}"/>
+    <hyperlink ref="G3" r:id="rId18" xr:uid="{FF47A1AD-1815-4511-B57C-1B89C9671FEE}"/>
+    <hyperlink ref="G4" r:id="rId19" xr:uid="{E772F961-5636-45D2-9409-C501A3979782}"/>
+    <hyperlink ref="G6" r:id="rId20" xr:uid="{3F3502AC-56BF-407C-84CC-67B2AFF88438}"/>
+    <hyperlink ref="G5" r:id="rId21" xr:uid="{8C23F404-4330-4BE5-BC50-F251F546BE5F}"/>
+    <hyperlink ref="G7" r:id="rId22" xr:uid="{ED80EB7D-3664-41EA-97E0-19970E8A9B2D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F83D0C-44CF-4C9F-85C2-BB70AC2DB5DB}">
+  <dimension ref="A1:AC35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" customWidth="1"/>
+    <col min="7" max="7" width="43.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>147</v>
+      </c>
+      <c r="R1" t="s">
+        <v>148</v>
+      </c>
+      <c r="S1" t="s">
+        <v>149</v>
+      </c>
+      <c r="T1" t="s">
+        <v>150</v>
+      </c>
+      <c r="U1" t="s">
+        <v>151</v>
+      </c>
+      <c r="V1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2">
+        <v>81234661110</v>
+      </c>
+      <c r="I2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O2">
+        <v>30163</v>
+      </c>
+      <c r="P2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>155</v>
+      </c>
+      <c r="R2" t="s">
+        <v>156</v>
+      </c>
+      <c r="S2" t="s">
+        <v>157</v>
+      </c>
+      <c r="T2" t="s">
+        <v>158</v>
+      </c>
+      <c r="U2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="W2">
+        <v>5</v>
+      </c>
+      <c r="X2">
+        <v>6</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>9</v>
+      </c>
+      <c r="AA2">
+        <v>5</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="H3">
+        <v>81234661111</v>
+      </c>
+      <c r="I3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" t="s">
+        <v>160</v>
+      </c>
+      <c r="O3">
+        <v>10110</v>
+      </c>
+      <c r="P3" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>162</v>
+      </c>
+      <c r="R3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S3" t="s">
+        <v>163</v>
+      </c>
+      <c r="T3" t="s">
+        <v>164</v>
+      </c>
+      <c r="U3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V3">
+        <v>3</v>
+      </c>
+      <c r="W3">
+        <v>5</v>
+      </c>
+      <c r="X3">
+        <v>6</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>9</v>
+      </c>
+      <c r="AA3">
+        <v>5</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H4">
+        <v>81111111111</v>
+      </c>
+      <c r="I4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" t="s">
+        <v>153</v>
+      </c>
+      <c r="O4">
+        <v>10150</v>
+      </c>
+      <c r="P4" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>166</v>
+      </c>
+      <c r="R4" t="s">
+        <v>162</v>
+      </c>
+      <c r="S4" t="s">
+        <v>163</v>
+      </c>
+      <c r="T4" t="s">
+        <v>164</v>
+      </c>
+      <c r="U4" t="s">
+        <v>8</v>
+      </c>
+      <c r="X4">
+        <v>2</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5">
+        <v>81111111111</v>
+      </c>
+      <c r="I5" t="s">
+        <v>159</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O5">
+        <v>10110</v>
+      </c>
+      <c r="P5" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>162</v>
+      </c>
+      <c r="R5" t="s">
+        <v>162</v>
+      </c>
+      <c r="S5" t="s">
+        <v>163</v>
+      </c>
+      <c r="T5" t="s">
+        <v>164</v>
+      </c>
+      <c r="U5" t="s">
+        <v>8</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>2</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>2</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>2</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="H6">
+        <v>81234567020</v>
+      </c>
+      <c r="I6" t="s">
+        <v>152</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" t="s">
+        <v>153</v>
+      </c>
+      <c r="O6">
+        <v>10150</v>
+      </c>
+      <c r="P6" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>166</v>
+      </c>
+      <c r="R6" t="s">
+        <v>162</v>
+      </c>
+      <c r="S6" t="s">
+        <v>163</v>
+      </c>
+      <c r="T6" t="s">
+        <v>164</v>
+      </c>
+      <c r="U6" t="s">
+        <v>8</v>
+      </c>
+      <c r="V6">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <v>5</v>
+      </c>
+      <c r="X6">
+        <v>6</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>9</v>
+      </c>
+      <c r="AA6">
+        <v>5</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="H7">
+        <v>81234568888</v>
+      </c>
+      <c r="I7" t="s">
+        <v>152</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" t="s">
+        <v>153</v>
+      </c>
+      <c r="O7">
+        <v>10150</v>
+      </c>
+      <c r="P7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>166</v>
+      </c>
+      <c r="R7" t="s">
+        <v>162</v>
+      </c>
+      <c r="S7" t="s">
+        <v>163</v>
+      </c>
+      <c r="T7" t="s">
+        <v>164</v>
+      </c>
+      <c r="U7" t="s">
+        <v>8</v>
+      </c>
+      <c r="V7">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>5</v>
+      </c>
+      <c r="X7">
+        <v>6</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>9</v>
+      </c>
+      <c r="AA7">
+        <v>5</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H8">
+        <v>81111111111</v>
+      </c>
+      <c r="I8" t="s">
+        <v>152</v>
+      </c>
+      <c r="J8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" t="s">
+        <v>167</v>
+      </c>
+      <c r="O8">
+        <v>10150</v>
+      </c>
+      <c r="P8" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>166</v>
+      </c>
+      <c r="R8" t="s">
+        <v>162</v>
+      </c>
+      <c r="S8" t="s">
+        <v>163</v>
+      </c>
+      <c r="T8" t="s">
+        <v>164</v>
+      </c>
+      <c r="U8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H9">
+        <v>81111111111</v>
+      </c>
+      <c r="I9" t="s">
+        <v>152</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9">
+        <v>10150</v>
+      </c>
+      <c r="P9" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>166</v>
+      </c>
+      <c r="R9" t="s">
+        <v>162</v>
+      </c>
+      <c r="S9" t="s">
+        <v>163</v>
+      </c>
+      <c r="T9" t="s">
+        <v>164</v>
+      </c>
+      <c r="U9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H10">
+        <v>81111111111</v>
+      </c>
+      <c r="I10" t="s">
+        <v>152</v>
+      </c>
+      <c r="J10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" t="s">
+        <v>168</v>
+      </c>
+      <c r="O10">
+        <v>10150</v>
+      </c>
+      <c r="P10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>166</v>
+      </c>
+      <c r="R10" t="s">
+        <v>162</v>
+      </c>
+      <c r="S10" t="s">
+        <v>163</v>
+      </c>
+      <c r="T10" t="s">
+        <v>164</v>
+      </c>
+      <c r="U10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H11">
+        <v>81111111111</v>
+      </c>
+      <c r="I11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" t="s">
+        <v>153</v>
+      </c>
+      <c r="O11">
+        <v>10150</v>
+      </c>
+      <c r="P11" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>166</v>
+      </c>
+      <c r="S11" t="s">
+        <v>163</v>
+      </c>
+      <c r="T11" t="s">
+        <v>164</v>
+      </c>
+      <c r="U11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H12">
+        <v>81111111111</v>
+      </c>
+      <c r="I12" t="s">
+        <v>152</v>
+      </c>
+      <c r="J12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" t="s">
+        <v>153</v>
+      </c>
+      <c r="O12">
+        <v>10150</v>
+      </c>
+      <c r="P12" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>166</v>
+      </c>
+      <c r="R12" t="s">
+        <v>162</v>
+      </c>
+      <c r="T12" t="s">
+        <v>164</v>
+      </c>
+      <c r="U12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>87282</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H17">
+        <v>81111111111</v>
+      </c>
+      <c r="I17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H18">
+        <v>81111111111</v>
+      </c>
+      <c r="I18" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19">
+        <v>81111111111</v>
+      </c>
+      <c r="I19" t="s">
+        <v>152</v>
+      </c>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" t="s">
+        <v>171</v>
+      </c>
+      <c r="F20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="I20" t="s">
+        <v>152</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F21" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21">
+        <v>81111111111</v>
+      </c>
+      <c r="I21" t="s">
+        <v>152</v>
+      </c>
+      <c r="K21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" t="s">
+        <v>171</v>
+      </c>
+      <c r="F22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H22">
+        <v>81111111111</v>
+      </c>
+      <c r="I22" t="s">
+        <v>152</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" t="s">
+        <v>173</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H23">
+        <v>81111111111</v>
+      </c>
+      <c r="I23" t="s">
+        <v>152</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L23" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H24">
+        <v>81111111111</v>
+      </c>
+      <c r="I24" t="s">
+        <v>152</v>
+      </c>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25">
+        <v>81111111111</v>
+      </c>
+      <c r="I25" t="s">
+        <v>152</v>
+      </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" t="s">
+        <v>13</v>
+      </c>
+      <c r="M25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" t="s">
+        <v>171</v>
+      </c>
+      <c r="F26" t="s">
+        <v>173</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26">
+        <v>81111111111</v>
+      </c>
+      <c r="I26" t="s">
+        <v>152</v>
+      </c>
+      <c r="J26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" t="s">
+        <v>171</v>
+      </c>
+      <c r="F27" t="s">
+        <v>173</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H27">
+        <v>812481</v>
+      </c>
+      <c r="I27" t="s">
+        <v>152</v>
+      </c>
+      <c r="J27" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" t="s">
+        <v>46</v>
+      </c>
+      <c r="L27" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" t="s">
+        <v>171</v>
+      </c>
+      <c r="F28" t="s">
+        <v>173</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H28">
+        <v>81111111111</v>
+      </c>
+      <c r="I28" t="s">
+        <v>152</v>
+      </c>
+      <c r="J28" t="s">
+        <v>128</v>
+      </c>
+      <c r="K28" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" t="s">
+        <v>13</v>
+      </c>
+      <c r="M28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" t="s">
+        <v>173</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H29">
+        <v>81111111111</v>
+      </c>
+      <c r="I29" t="s">
+        <v>152</v>
+      </c>
+      <c r="J29" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" t="s">
+        <v>128</v>
+      </c>
+      <c r="L29" t="s">
+        <v>13</v>
+      </c>
+      <c r="M29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H30">
+        <v>81111111111</v>
+      </c>
+      <c r="I30" t="s">
+        <v>152</v>
+      </c>
+      <c r="J30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30" t="s">
+        <v>13</v>
+      </c>
+      <c r="M30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" t="s">
+        <v>171</v>
+      </c>
+      <c r="F31" t="s">
+        <v>173</v>
+      </c>
+      <c r="G31" t="s">
+        <v>131</v>
+      </c>
+      <c r="H31">
+        <v>81111111111</v>
+      </c>
+      <c r="I31" t="s">
+        <v>152</v>
+      </c>
+      <c r="J31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32" t="s">
+        <v>173</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H32">
+        <v>81111111111</v>
+      </c>
+      <c r="I32" t="s">
+        <v>152</v>
+      </c>
+      <c r="J32" t="s">
+        <v>129</v>
+      </c>
+      <c r="K32" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" t="s">
+        <v>171</v>
+      </c>
+      <c r="F33" t="s">
+        <v>173</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H33">
+        <v>81111111111</v>
+      </c>
+      <c r="I33" t="s">
+        <v>152</v>
+      </c>
+      <c r="J33" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" t="s">
+        <v>129</v>
+      </c>
+      <c r="L33" t="s">
+        <v>13</v>
+      </c>
+      <c r="M33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" t="s">
+        <v>171</v>
+      </c>
+      <c r="F34" t="s">
+        <v>173</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H34">
+        <v>81111111111</v>
+      </c>
+      <c r="I34" t="s">
+        <v>152</v>
+      </c>
+      <c r="J34" t="s">
+        <v>132</v>
+      </c>
+      <c r="K34" t="s">
+        <v>132</v>
+      </c>
+      <c r="L34" t="s">
+        <v>13</v>
+      </c>
+      <c r="M34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" t="s">
+        <v>173</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H35">
+        <v>81111111111</v>
+      </c>
+      <c r="I35" t="s">
+        <v>152</v>
+      </c>
+      <c r="J35" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" t="s">
+        <v>132</v>
+      </c>
+      <c r="L35" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{BF5FE732-3D0B-4EAF-8164-AEE55E67F248}"/>
+    <hyperlink ref="G26" r:id="rId2" xr:uid="{21118B91-B671-48A9-BE52-0E4A8E9CFF89}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{FB12E3E9-B25B-4BAB-A500-C17FF722906D}"/>
+    <hyperlink ref="G4" r:id="rId4" xr:uid="{F0E3C3BF-D666-4D1A-93C0-15946C546331}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{F327EF6E-379C-499C-AC4D-EB26F1FB7045}"/>
+    <hyperlink ref="G5" r:id="rId6" xr:uid="{49054964-7C9C-4D94-9F7E-31620ADFEC3B}"/>
+    <hyperlink ref="G8:G12" r:id="rId7" display="cobakacab0@gmail.com" xr:uid="{F18D9F49-E4EB-4E67-B247-4C0568FFBA57}"/>
+    <hyperlink ref="G17:G18" r:id="rId8" display="cobakacab0@gmail.com" xr:uid="{9F133B1E-8A77-41A2-BCD4-15D99A192D17}"/>
+    <hyperlink ref="G20:G24" r:id="rId9" display="cobakacab0@gmail.com" xr:uid="{90CB7A19-BA1F-425E-9441-D5456FFC770B}"/>
+    <hyperlink ref="G27:G30" r:id="rId10" display="cobakacab0@gmail.com" xr:uid="{6A66282E-1F21-4011-B45A-197C363E401D}"/>
+    <hyperlink ref="G32:G35" r:id="rId11" display="cobakacab0@gmail.com" xr:uid="{B58A5E57-EB1E-40C0-A78D-4ACB45EBAC28}"/>
+    <hyperlink ref="G7" r:id="rId12" xr:uid="{7EEEA290-5666-4C30-8B03-269AC174F941}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>